--- a/src/test/resources/bookShelvesData.xlsx
+++ b/src/test/resources/bookShelvesData.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="49">
   <si>
     <t>Model Name</t>
   </si>
@@ -179,6 +179,12 @@
   </si>
   <si>
     <t>₹12,799</t>
+  </si>
+  <si>
+    <t>Harwin Solid Wood Bookshelf In Teak Finish</t>
+  </si>
+  <si>
+    <t>₹11,263</t>
   </si>
 </sst>
 </file>
@@ -599,13 +605,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="1">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/bookShelvesData.xlsx
+++ b/src/test/resources/bookShelvesData.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="49">
   <si>
     <t>Model Name</t>
   </si>
